--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3668.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3668.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.413805370943108</v>
+        <v>0.7338071465492249</v>
       </c>
       <c r="B1">
-        <v>2.434611498699017</v>
+        <v>0.7081208229064941</v>
       </c>
       <c r="C1">
-        <v>7.622969544264272</v>
+        <v>0.5288563370704651</v>
       </c>
       <c r="D1">
-        <v>2.430866690829521</v>
+        <v>0.497530072927475</v>
       </c>
       <c r="E1">
-        <v>0.9273661648047732</v>
+        <v>0.5220888257026672</v>
       </c>
     </row>
   </sheetData>
